--- a/exports/exported-file.xlsx
+++ b/exports/exported-file.xlsx
@@ -4,37 +4,73 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="مسؤولين النظام" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="الطلبات" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>اسم المسؤول</t>
-  </si>
-  <si>
-    <t>البريد الالكتروني</t>
-  </si>
-  <si>
-    <t>الحالة</t>
-  </si>
-  <si>
-    <t>تاريخ الانشاء</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>admin@admin.com</t>
-  </si>
-  <si>
-    <t>ACTIVE</t>
-  </si>
-  <si>
-    <t>Wed Aug 16 2023</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+  <si>
+    <t>رقم الطلب</t>
+  </si>
+  <si>
+    <t>الزبون</t>
+  </si>
+  <si>
+    <t>الموزع</t>
+  </si>
+  <si>
+    <t>حالة الطلب</t>
+  </si>
+  <si>
+    <t>تاريخ الطلب</t>
+  </si>
+  <si>
+    <t>وقت الطلب</t>
+  </si>
+  <si>
+    <t>W-202353</t>
+  </si>
+  <si>
+    <t>Customer 2</t>
+  </si>
+  <si>
+    <t>Radds water</t>
+  </si>
+  <si>
+    <t>COMPLETED</t>
+  </si>
+  <si>
+    <t>Mon Aug 28 2023</t>
+  </si>
+  <si>
+    <t>21:45:48</t>
+  </si>
+  <si>
+    <t>W-202354</t>
+  </si>
+  <si>
+    <t>ON_WAY</t>
+  </si>
+  <si>
+    <t>Sun Aug 27 2023</t>
+  </si>
+  <si>
+    <t>21:45:59</t>
+  </si>
+  <si>
+    <t>W-202358</t>
+  </si>
+  <si>
+    <t>PENDING</t>
+  </si>
+  <si>
+    <t>Sat Aug 26 2023</t>
+  </si>
+  <si>
+    <t>1:37:48</t>
   </si>
 </sst>
 </file>
@@ -411,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,19 +463,71 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
